--- a/test cases/messenger/case 4/ip info.xlsx
+++ b/test cases/messenger/case 4/ip info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="28">
   <si>
     <t>type</t>
   </si>
@@ -25,31 +25,31 @@
     <t>Keys</t>
   </si>
   <si>
-    <t>157.240.245.58:53277</t>
+    <t>128.197.29.224:26574 (related)</t>
   </si>
   <si>
     <t>128.197.29.224:32808</t>
   </si>
   <si>
-    <t>157.240.245.58:56077</t>
+    <t>128.197.29.224:31972 (related)</t>
   </si>
   <si>
     <t>128.197.29.224:32686</t>
   </si>
   <si>
-    <t>157.240.245.58:58115</t>
+    <t>128.197.29.224:25047 (related)</t>
   </si>
   <si>
     <t>128.197.29.224:20067</t>
   </si>
   <si>
-    <t>157.240.245.58:53229</t>
-  </si>
-  <si>
-    <t>157.240.245.58:57004</t>
-  </si>
-  <si>
-    <t>157.240.245.58:55649</t>
+    <t>128.197.29.224:7916 (related)</t>
+  </si>
+  <si>
+    <t>128.197.29.224:2150 (related)</t>
+  </si>
+  <si>
+    <t>128.197.29.224:8381 (related)</t>
   </si>
   <si>
     <t>128.197.29.224:7916</t>
@@ -58,34 +58,40 @@
     <t>128.197.29.224:46856</t>
   </si>
   <si>
-    <t>157.240.245.58:51526</t>
-  </si>
-  <si>
-    <t>157.240.245.58:53136</t>
+    <t>128.197.29.224:30880 (related)</t>
+  </si>
+  <si>
+    <t>128.197.29.224:3740 (related)</t>
   </si>
   <si>
     <t>128.197.29.224:2150</t>
   </si>
   <si>
-    <t>157.240.245.58:53474</t>
+    <t>128.197.29.224:46856 (related)</t>
   </si>
   <si>
     <t>204.8.153.51:59850</t>
   </si>
   <si>
-    <t>157.240.240.58:56273</t>
-  </si>
-  <si>
-    <t>157.240.240.58:55152</t>
-  </si>
-  <si>
-    <t>157.240.240.58:53209</t>
+    <t>204.8.153.53:30425 (related)</t>
+  </si>
+  <si>
+    <t>204.8.153.51:59850 (related)</t>
+  </si>
+  <si>
+    <t>204.8.153.53:30403 (related)</t>
+  </si>
+  <si>
+    <t>10.239.161.0:51153 (related)</t>
   </si>
   <si>
     <t>relay</t>
   </si>
   <si>
     <t>srflx</t>
+  </si>
+  <si>
+    <t>prflx</t>
   </si>
   <si>
     <t>caller</t>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -471,10 +477,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -482,10 +488,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -493,10 +499,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -504,10 +510,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -515,10 +521,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -526,10 +532,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -537,10 +543,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -548,10 +554,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -559,10 +565,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -570,10 +576,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -581,10 +587,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -592,10 +598,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -603,10 +609,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -614,10 +620,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -625,10 +631,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -636,10 +642,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -647,10 +653,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -658,10 +664,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -669,10 +675,21 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C20" t="s">
+      <c r="B21" t="s">
         <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/test cases/messenger/case 4/ip info.xlsx
+++ b/test cases/messenger/case 4/ip info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="61">
   <si>
     <t>type</t>
   </si>
@@ -22,67 +22,124 @@
     <t>location</t>
   </si>
   <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>protocol</t>
+  </si>
+  <si>
+    <t>remote</t>
+  </si>
+  <si>
     <t>Keys</t>
   </si>
   <si>
-    <t>128.197.29.224:26574 (related)</t>
-  </si>
-  <si>
-    <t>128.197.29.224:32808</t>
-  </si>
-  <si>
-    <t>128.197.29.224:31972 (related)</t>
-  </si>
-  <si>
-    <t>128.197.29.224:32686</t>
-  </si>
-  <si>
-    <t>128.197.29.224:25047 (related)</t>
-  </si>
-  <si>
-    <t>128.197.29.224:20067</t>
-  </si>
-  <si>
-    <t>128.197.29.224:7916 (related)</t>
-  </si>
-  <si>
-    <t>128.197.29.224:2150 (related)</t>
-  </si>
-  <si>
-    <t>128.197.29.224:8381 (related)</t>
-  </si>
-  <si>
-    <t>128.197.29.224:7916</t>
-  </si>
-  <si>
-    <t>128.197.29.224:46856</t>
-  </si>
-  <si>
-    <t>128.197.29.224:30880 (related)</t>
-  </si>
-  <si>
-    <t>128.197.29.224:3740 (related)</t>
-  </si>
-  <si>
-    <t>128.197.29.224:2150</t>
-  </si>
-  <si>
-    <t>128.197.29.224:46856 (related)</t>
-  </si>
-  <si>
-    <t>204.8.153.51:59850</t>
-  </si>
-  <si>
-    <t>204.8.153.53:30425 (related)</t>
-  </si>
-  <si>
-    <t>204.8.153.51:59850 (related)</t>
-  </si>
-  <si>
-    <t>204.8.153.53:30403 (related)</t>
-  </si>
-  <si>
-    <t>10.239.161.0:51153 (related)</t>
+    <t>128.197.29.224_26574 (related)</t>
+  </si>
+  <si>
+    <t>128.197.29.224_32808</t>
+  </si>
+  <si>
+    <t>128.197.29.224_31972 (related)</t>
+  </si>
+  <si>
+    <t>128.197.29.224_32686</t>
+  </si>
+  <si>
+    <t>128.197.29.224_25047 (related)</t>
+  </si>
+  <si>
+    <t>128.197.29.224_20067</t>
+  </si>
+  <si>
+    <t>128.197.29.224_7916 (related)</t>
+  </si>
+  <si>
+    <t>128.197.29.224_2150 (related)</t>
+  </si>
+  <si>
+    <t>128.197.29.224_8381 (related)</t>
+  </si>
+  <si>
+    <t>128.197.29.224_7916</t>
+  </si>
+  <si>
+    <t>128.197.29.224_46856</t>
+  </si>
+  <si>
+    <t>128.197.29.224_30880 (related)</t>
+  </si>
+  <si>
+    <t>128.197.29.224_3740 (related)</t>
+  </si>
+  <si>
+    <t>128.197.29.224_2150</t>
+  </si>
+  <si>
+    <t>128.197.29.224_46856 (related)</t>
+  </si>
+  <si>
+    <t>204.8.153.51_59850</t>
+  </si>
+  <si>
+    <t>204.8.153.53_30425 (related)</t>
+  </si>
+  <si>
+    <t>204.8.153.51_59850 (related)</t>
+  </si>
+  <si>
+    <t>204.8.153.53_30403 (related)</t>
+  </si>
+  <si>
+    <t>10.239.161.0_51153 (related)</t>
+  </si>
+  <si>
+    <t>bdc05339-7f32-49d4-a722-e0180c1d9045.local_51153</t>
+  </si>
+  <si>
+    <t>bdc05339-7f32-49d4-a722-e0180c1d9045.local_51155</t>
+  </si>
+  <si>
+    <t>bdc05339-7f32-49d4-a722-e0180c1d9045.local_51157</t>
+  </si>
+  <si>
+    <t>157.240.245.58_57004</t>
+  </si>
+  <si>
+    <t>157.240.245.58_53229</t>
+  </si>
+  <si>
+    <t>157.240.245.58_53474</t>
+  </si>
+  <si>
+    <t>157.240.245.58_55649</t>
+  </si>
+  <si>
+    <t>157.240.245.58_53136</t>
+  </si>
+  <si>
+    <t>157.240.245.58_53277</t>
+  </si>
+  <si>
+    <t>157.240.245.58_58115</t>
+  </si>
+  <si>
+    <t>157.240.245.58_51526</t>
+  </si>
+  <si>
+    <t>157.240.245.58_56077</t>
+  </si>
+  <si>
+    <t>d1f13453-762d-44a7-8d67-ccb9e2097ab3.local_61659</t>
+  </si>
+  <si>
+    <t>157.240.240.58_55152</t>
+  </si>
+  <si>
+    <t>157.240.240.58_56273</t>
+  </si>
+  <si>
+    <t>157.240.240.58_53209</t>
   </si>
   <si>
     <t>relay</t>
@@ -94,10 +151,52 @@
     <t>prflx</t>
   </si>
   <si>
+    <t>host</t>
+  </si>
+  <si>
     <t>caller</t>
   </si>
   <si>
     <t>receiver</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1_video</t>
+  </si>
+  <si>
+    <t>0_audio</t>
+  </si>
+  <si>
+    <t>udp</t>
+  </si>
+  <si>
+    <t>0.0.0.0_0</t>
+  </si>
+  <si>
+    <t>128.197.29.224_8381</t>
+  </si>
+  <si>
+    <t>128.197.29.224_3740</t>
+  </si>
+  <si>
+    <t>128.197.29.224_26574</t>
+  </si>
+  <si>
+    <t>128.197.29.224_25047</t>
+  </si>
+  <si>
+    <t>128.197.29.224_30880</t>
+  </si>
+  <si>
+    <t>128.197.29.224_31972</t>
+  </si>
+  <si>
+    <t>204.8.153.53_30425</t>
+  </si>
+  <si>
+    <t>204.8.153.53_30403</t>
   </si>
 </sst>
 </file>
@@ -455,15 +554,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -471,225 +570,539 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1" t="s">
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" t="s">
+        <v>51</v>
+      </c>
+      <c r="F25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" t="s">
+        <v>51</v>
+      </c>
+      <c r="F26" t="s">
         <v>15</v>
       </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1" t="s">
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27" t="s">
         <v>16</v>
       </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1" t="s">
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" t="s">
+        <v>51</v>
+      </c>
+      <c r="F28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" t="s">
+        <v>51</v>
+      </c>
+      <c r="F29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" t="s">
+        <v>51</v>
+      </c>
+      <c r="F30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31" t="s">
+        <v>51</v>
+      </c>
+      <c r="F31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" t="s">
+        <v>51</v>
+      </c>
+      <c r="F32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" t="s">
+        <v>48</v>
+      </c>
+      <c r="E33" t="s">
+        <v>51</v>
+      </c>
+      <c r="F33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" t="s">
+        <v>50</v>
+      </c>
+      <c r="E34" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" t="s">
+        <v>50</v>
+      </c>
+      <c r="E35" t="s">
+        <v>51</v>
+      </c>
+      <c r="F35" t="s">
         <v>21</v>
       </c>
-      <c r="B20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" t="s">
+        <v>50</v>
+      </c>
+      <c r="E36" t="s">
+        <v>51</v>
+      </c>
+      <c r="F36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37" t="s">
+        <v>51</v>
+      </c>
+      <c r="F37" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
